--- a/thresholds/IGCSE/first-language-spanish/first-language-spanish-thresholds.xlsx
+++ b/thresholds/IGCSE/first-language-spanish/first-language-spanish-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,77 +862,77 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F11" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F12" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,73 +985,73 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H14" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>160</v>
       </c>
       <c r="C15" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D15" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F15" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G15" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H15" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I15" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,77 +1108,77 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E17" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G17" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H17" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" t="n">
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1190,7 +1190,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1231,48 +1231,48 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX (X) 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D20" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E20" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H20" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY (Y) 12,22</t>
+          <t>AX (X) 11,21</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1313,7 +1313,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BX (X) 11,21</t>
+          <t>AY (Y) 12,22</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1354,7 +1354,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BY (Y) 12,22</t>
+          <t>BX (X) 11,21</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1387,6 +1387,47 @@
         </is>
       </c>
       <c r="K23" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>BY (Y) 12,22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>160</v>
+      </c>
+      <c r="C24" t="n">
+        <v>117</v>
+      </c>
+      <c r="D24" t="n">
+        <v>107</v>
+      </c>
+      <c r="E24" t="n">
+        <v>97</v>
+      </c>
+      <c r="F24" t="n">
+        <v>87</v>
+      </c>
+      <c r="G24" t="n">
+        <v>69</v>
+      </c>
+      <c r="H24" t="n">
+        <v>52</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
